--- a/data/income_statement/2digits/size/81_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/81_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>81-Services to buildings and landscape activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>81-Services to buildings and landscape activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,293 +841,333 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1612957.27731</v>
+        <v>1614929.33382</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1781923.5594</v>
+        <v>1761927.27593</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2302404.21098</v>
+        <v>2288023.36929</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2865355.65922</v>
+        <v>2858344.85426</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3310808.758669999</v>
+        <v>3347260.32286</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4017051.10575</v>
+        <v>4045199.34583</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4501531.740219999</v>
+        <v>4618077.907310001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5915643.72316</v>
+        <v>5944735.328699999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7288330.98058</v>
+        <v>7278127.15494</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6013342.713230001</v>
+        <v>5892073.542040001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4897092.31064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4679282.62273</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4469837.247</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1549753.23392</v>
+        <v>1553128.68051</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1705651.57961</v>
+        <v>1686616.29147</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2190599.55407</v>
+        <v>2176099.44354</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2747320.25885</v>
+        <v>2741878.43735</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3125723.85199</v>
+        <v>3161558.15378</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3840117.87673</v>
+        <v>3869583.92059</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4325129.79493</v>
+        <v>4438007.85072</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5660180.3671</v>
+        <v>5684958.67164</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6935917.91506</v>
+        <v>6928869.480199999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5830727.823360001</v>
+        <v>5716008.82075</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4731711.89249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4542349.9066</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4341782.03</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13318.08742</v>
+        <v>11931.99176</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4540.64657</v>
+        <v>3623.66174</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>12495.85217</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>24050.9434</v>
+        <v>24036.80783</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>72456.29622</v>
+        <v>72456.57682</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>26967.25881</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>32594.22838</v>
+        <v>37307.8391</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>46774.65383</v>
+        <v>57175.10289</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>92319.91009</v>
+        <v>92416.66237000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>19791.88291</v>
+        <v>16903.62047</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>59145.08054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>39853.74466</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>36438.393</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>49885.95597</v>
+        <v>49868.66155</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>71731.33322</v>
+        <v>71687.32272</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>99308.80473999999</v>
+        <v>99428.07358</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>93984.45697</v>
+        <v>92429.60907999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>112628.61046</v>
+        <v>113245.59226</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>149965.97021</v>
+        <v>148648.16643</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>143807.71691</v>
+        <v>142762.21749</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>208688.70223</v>
+        <v>202601.55417</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>260093.15543</v>
+        <v>256841.01237</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>162823.00696</v>
+        <v>159161.10082</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>106235.33761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>97078.97146999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>91616.82399999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4177.45284</v>
+        <v>4229.44013</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2940.66483</v>
+        <v>2882.17614</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4627.42919</v>
+        <v>4639.503</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4098.79096</v>
+        <v>4116.91519</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4441.01542</v>
+        <v>4488.93405</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5710.44307</v>
+        <v>4581.24439</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9931.807469999998</v>
+        <v>9402.038849999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6983.59258</v>
+        <v>5300.358020000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11833.10455</v>
+        <v>16786.73537</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>41881.9165</v>
+        <v>38754.14112</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>47553.00523999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12987.93897</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>38133.273</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2352.35263</v>
+        <v>2404.33992</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1595.42421</v>
+        <v>1537.74442</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4280.396519999999</v>
+        <v>4288.40704</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3372.32004</v>
+        <v>3390.44427</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3923.432</v>
+        <v>3960.0939</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4846.201139999999</v>
+        <v>3716.51986</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7924.007259999999</v>
+        <v>7447.24347</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6312.938029999999</v>
+        <v>4671.71764</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7720.44016</v>
+        <v>12625.44888</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>38334.05284999999</v>
+        <v>35212.4119</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>46689.80900000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12129.67773</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>37334.547</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>805.78439</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>139.62448</v>
+        <v>139.31558</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>232.13005</v>
+        <v>236.19334</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>626.1752700000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>381.01015</v>
+        <v>392.26688</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>418.57634</v>
+        <v>419.05894</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1916.31876</v>
+        <v>1862.04885</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>428.92079</v>
+        <v>386.90662</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>445.83194</v>
+        <v>493.8039</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>656.1769499999999</v>
+        <v>649.54692</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>766.98601</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>604.6420000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1019.31582</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1205.61614</v>
+        <v>1205.11614</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>114.90262</v>
@@ -1241,337 +1182,382 @@
         <v>445.66559</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>91.48145</v>
+        <v>92.74652999999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>241.73376</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3666.83245</v>
+        <v>3667.48259</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2891.6867</v>
+        <v>2892.1823</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>96.21023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>91.27522999999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>194.084</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1608779.82447</v>
+        <v>1610699.89369</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1778982.89457</v>
+        <v>1759045.09979</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2297776.78179</v>
+        <v>2283383.86629</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2861256.86826</v>
+        <v>2854227.93907</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3306367.74325</v>
+        <v>3342771.38881</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4011340.66268</v>
+        <v>4040618.10144</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4491599.93275</v>
+        <v>4608675.86846</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5908660.13058</v>
+        <v>5939434.970679999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7276497.876030001</v>
+        <v>7261340.41957</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5971460.796730001</v>
+        <v>5853319.40092</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4849539.3054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4666294.68376</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4431703.974</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1337287.35695</v>
+        <v>1332790.82712</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1501906.98673</v>
+        <v>1489849.58893</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1959439.60649</v>
+        <v>1953040.21875</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2462417.13203</v>
+        <v>2463553.99902</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2868364.64753</v>
+        <v>2907243.58788</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3499143.24542</v>
+        <v>3526147.00549</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3948261.33927</v>
+        <v>4068818.7731</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5210659.79979</v>
+        <v>5228850.23433</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6489693.334400001</v>
+        <v>6467071.28424</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5369555.50198</v>
+        <v>5262061.41286</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4239395.79291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4087207.40234</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3887227.241</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>42951.50531</v>
+        <v>38227.50021</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>37110.52925</v>
+        <v>36804.8951</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>43023.05989</v>
+        <v>39517.52724</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>78282.03748</v>
+        <v>78126.24946000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>58877.23161</v>
+        <v>59098.68386</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>91452.67315999999</v>
+        <v>89011.38317</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>68710.75926000001</v>
+        <v>64405.15171</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>136667.32461</v>
+        <v>126553.21297</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>190852.09553</v>
+        <v>199866.39688</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>233222.4564</v>
+        <v>229127.70172</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>154924.09369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>145177.47704</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>223204.481</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>93183.29182000001</v>
+        <v>87488.93029</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>137402.64553</v>
+        <v>135676.72108</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>200242.51469</v>
+        <v>196676.26498</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>207558.48922</v>
+        <v>205198.19465</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>299756.17777</v>
+        <v>309578.05983</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>337347.43227</v>
+        <v>331957.88263</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>425774.8582400001</v>
+        <v>451061.03322</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>697990.13199</v>
+        <v>670088.7526900001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>985255.40834</v>
+        <v>947821.6592499999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>550606.08227</v>
+        <v>493498.25977</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>817708.34366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>780212.45608</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>727165.201</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1197590.89677</v>
+        <v>1203512.73357</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1323707.8849</v>
+        <v>1313691.91574</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1712660.54879</v>
+        <v>1713347.02121</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2173115.97224</v>
+        <v>2176668.415109999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2504431.49084</v>
+        <v>2533263.01688</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3056560.91155</v>
+        <v>3091337.29513</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3444188.13709</v>
+        <v>3543708.67595</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4343770.659689999</v>
+        <v>4406932.05333</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5267901.5032</v>
+        <v>5274164.6505</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4511269.95732</v>
+        <v>4468285.669240001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3247940.53342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3144685.24058</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2863075.363</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3561.66305</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3685.92705</v>
+        <v>3676.05701</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3513.48312</v>
+        <v>3499.40532</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3460.63309</v>
+        <v>3561.1398</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5299.747310000001</v>
+        <v>5303.827310000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13782.22844</v>
+        <v>13840.44456</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9587.58468</v>
+        <v>9643.91222</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>32231.6835</v>
+        <v>25276.21534</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>45684.32733</v>
+        <v>45218.57761</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>74457.00598999999</v>
+        <v>71149.78213000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18822.82214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17132.22864</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>73782.196</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>271492.46752</v>
+        <v>277909.06657</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>277075.90784</v>
+        <v>269195.51086</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>338337.1753</v>
+        <v>330343.64754</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>398839.73623</v>
+        <v>390673.94005</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>438003.09572</v>
+        <v>435527.80093</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>512197.41726</v>
+        <v>514471.09595</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>543338.59348</v>
+        <v>539857.09536</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>698000.3307899999</v>
+        <v>710584.73635</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>786804.54163</v>
+        <v>794269.1353300001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>601905.29475</v>
+        <v>591257.9880600001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>610143.51249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>579087.2814200001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>544476.733</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>233303.72456</v>
+        <v>230648.09766</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>239149.57409</v>
+        <v>231552.14916</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>298240.31966</v>
+        <v>291404.02585</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>331028.57773</v>
+        <v>323094.18549</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>347211.00679</v>
+        <v>346225.03131</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>402002.9234</v>
+        <v>401048.1659</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>441589.23057</v>
+        <v>439802.7838499999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>628613.8853199999</v>
+        <v>627250.25233</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>669173.9657299999</v>
+        <v>668090.94268</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>573963.25283</v>
+        <v>560727.0995</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>519623.41292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>481612.4180300001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>448430.121</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1386.67911</v>
@@ -1606,179 +1592,204 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>19.815</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>34278.87538</v>
+        <v>34177.47216999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26126.91107</v>
+        <v>25916.72227</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>27711.27493</v>
+        <v>27393.61398</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>33413.45456000001</v>
+        <v>33229.16703</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>35468.59269</v>
+        <v>35687.05398</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>39028.05405</v>
+        <v>39061.78765</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43912.50979</v>
+        <v>42819.19244000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>62788.55203</v>
+        <v>62843.5548</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>69257.6277</v>
+        <v>72739.2479</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>50917.25529</v>
+        <v>50616.71116000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>49890.6443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>39981.00847</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>49735.225</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>197638.17007</v>
+        <v>195083.94638</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>211419.35357</v>
+        <v>204032.11744</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>268774.49823</v>
+        <v>262255.86537</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>296520.68128</v>
+        <v>288770.57657</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>310490.73539</v>
+        <v>309286.29862</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>358943.08057</v>
+        <v>357954.58947</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>397589.02718</v>
+        <v>396895.8978099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>565825.3145399999</v>
+        <v>564406.67878</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>599603.61393</v>
+        <v>595038.9706799999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>522839.73652</v>
+        <v>509904.12732</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>469732.76862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>441631.40956</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>398675.081</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>38188.74296</v>
+        <v>47260.96891</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>37926.33375</v>
+        <v>37643.3617</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>40096.85564</v>
+        <v>38939.62169</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>67811.15850000001</v>
+        <v>67579.75456</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>90792.08893000001</v>
+        <v>89302.76961999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>110194.49386</v>
+        <v>113422.93005</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>101749.36291</v>
+        <v>100054.31151</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>69386.44547000001</v>
+        <v>83334.48401999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>117630.5759</v>
+        <v>126178.19265</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>27942.04192</v>
+        <v>30530.88856</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>90520.09956999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>97474.86339</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>96046.61199999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>10844.03673</v>
+        <v>19677.84327</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>20442.2735</v>
+        <v>19372.95939</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>19126.93892</v>
+        <v>16164.30815</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>18210.43138</v>
+        <v>15399.69808</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>45980.26367999999</v>
+        <v>20292.81965</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>42619.65353</v>
+        <v>32801.08813</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>33373.62277</v>
+        <v>27193.97457</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>50563.36558</v>
+        <v>41778.79086</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>67515.98953000001</v>
+        <v>269701.2092</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>186786.53744</v>
+        <v>112319.15195</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>117730.19794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>68489.81896</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>109510.491</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1305.54489</v>
+        <v>1098.33605</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4462.28782</v>
+        <v>3607.98097</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3295.52284</v>
+        <v>1173.972</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2190.29021</v>
+        <v>1480.85703</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>4379.00912</v>
@@ -1787,28 +1798,33 @@
         <v>3466.37741</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4558.176280000001</v>
+        <v>4380.58586</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5725.33612</v>
+        <v>5264.05798</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7206.185219999999</v>
+        <v>3460.430649999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4295.60405</v>
+        <v>3367.41192</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>13377.05998</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>36496.464</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1114.02867</v>
+        <v>527.28482</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>2181.62078</v>
@@ -1817,73 +1833,83 @@
         <v>4351.225240000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2288.38127</v>
+        <v>1632.25973</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>4653.76637</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2770.06899</v>
+        <v>2012.06974</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3423.55027</v>
+        <v>3303.13892</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6067.297800000001</v>
+        <v>4942.10641</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3012.74519</v>
+        <v>10501.33328</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>8864.46061</v>
+        <v>4804.301020000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>7855.41422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>13266.1536</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3810.767</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2023.88346</v>
+        <v>1362.64916</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1761.3872</v>
+        <v>2120.51783</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3294.00379</v>
+        <v>3467.49255</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3908.95508</v>
+        <v>3699.607460000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2552.1083</v>
+        <v>2453.00976</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6802.62475</v>
+        <v>6790.13327</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5863.60299</v>
+        <v>6267.902959999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8434.894890000001</v>
+        <v>6749.757570000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>9246.152820000001</v>
+        <v>11037.75529</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23040.49337</v>
+        <v>11268.72767</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15859.34177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14309.19992</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8634.852000000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.08907</v>
@@ -1895,22 +1921,22 @@
         <v>5.88985</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>20.33538</v>
+        <v>406.69227</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>98.54541999999999</v>
+        <v>161.99136</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>25.33813</v>
+        <v>116.231</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>60.81692</v>
+        <v>106.92857</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>103.10517</v>
+        <v>40.5478</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>114.96676</v>
+        <v>21.8726</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>48.68547</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>208.11382</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>114.477</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>147.96085</v>
+        <v>367.16952</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>533.1646</v>
@@ -1943,7 +1974,7 @@
         <v>2751.06765</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1342.48332</v>
+        <v>507.6283</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>50.26916000000001</v>
@@ -1955,25 +1986,30 @@
         <v>14150.31551</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>400.50775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>361.50775</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>353.51</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>391.91478</v>
+        <v>385.2816800000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2159.2589</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>443.42615</v>
+        <v>443.51403</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>409.43543</v>
+        <v>409.41467</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>86.26989</v>
@@ -1982,64 +2018,74 @@
         <v>256.4215</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>191.04429</v>
+        <v>176.74004</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>254.05522</v>
+        <v>253.8625</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>422.08904</v>
+        <v>525.2742500000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>771.2078799999999</v>
+        <v>685.1184300000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>942.2814099999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>667.8617599999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1055.047</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>497.82373</v>
+        <v>10997.45219</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>769.4803400000001</v>
+        <v>717.8016799999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2173.96147</v>
+        <v>1575.64043</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>754.01409</v>
+        <v>709.61144</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1357.73845</v>
+        <v>1358.8253</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7438.52408</v>
+        <v>2905.88115</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8128.01684</v>
+        <v>5930.65909</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9983.692929999999</v>
+        <v>8668.63068</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21851.54946</v>
+        <v>225526.65021</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>65655.39127000001</v>
+        <v>56660.19303</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>20579.68942</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10450.64996</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>31066.802</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>36.29145</v>
@@ -2066,19 +2112,24 @@
         <v>8.2288</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>224.38568</v>
+        <v>220.81602</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>68.10978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>67.24736999999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>241.15204</v>
@@ -2099,7 +2150,7 @@
         <v>240.03578</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>2.89948</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5085.34779</v>
+        <v>4662.13729</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8273.91786</v>
+        <v>7751.458630000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5380.30492</v>
+        <v>4963.969389999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8453.754489999999</v>
+        <v>6875.990049999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>32795.753</v>
+        <v>7142.87472</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>18869.19524</v>
+        <v>14262.87063</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9805.931859999999</v>
+        <v>6517.49135</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19936.48549</v>
+        <v>15801.32996</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>25049.43335</v>
+        <v>18018.59489</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>69960.37928000001</v>
+        <v>21334.3989</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>58439.67979</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15782.0248</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>27978.572</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3249.97597</v>
+        <v>11562.68989</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5933.544129999999</v>
+        <v>5756.29959</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4878.104399999999</v>
+        <v>4991.096219999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8852.10649</v>
+        <v>7575.503380000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>32078.68740999999</v>
+        <v>9671.508189999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14151.68624</v>
+        <v>9955.904909999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13333.03033</v>
+        <v>10266.48696</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>25796.59324</v>
+        <v>23442.88035</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>33544.31148</v>
+        <v>187265.84871</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>94482.62208</v>
+        <v>82826.09684999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>44983.3882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>13107.32044</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>22028.494</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>503.53625</v>
+        <v>161.59089</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>438.81125</v>
+        <v>225.15227</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>180.7814</v>
@@ -2216,25 +2282,30 @@
         <v>282.66156</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>869.36123</v>
+        <v>850.3360799999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1234.15428</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>988.09721</v>
+        <v>607.4750300000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>598.07003</v>
+        <v>559.3510500000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>622.4192099999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>350.6136</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>167.728</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1036.19504</v>
@@ -2246,34 +2317,39 @@
         <v>794.50676</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2772.72131</v>
+        <v>2760.1306</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1969.81801</v>
+        <v>1968.10201</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>1794.25048</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>645.65032</v>
+        <v>686.33201</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>1462.13074</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3411.475</v>
+        <v>1811.475</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>15627.37007</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>3446.12805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3160.12805</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1609.052</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>53.46225</v>
@@ -2291,10 +2367,10 @@
         <v>5.000940000000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1.14823</v>
+        <v>0.88673</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>28.40194</v>
+        <v>29.86394</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>27.9088</v>
@@ -2306,52 +2382,62 @@
         <v>45.4693</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>14583.08971</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>108.432</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>514.77458</v>
+        <v>9169.434130000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>708.73631</v>
+        <v>749.5552100000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1302.06619</v>
+        <v>1709.92655</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1282.64373</v>
+        <v>968.05296</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2708.89258</v>
+        <v>2813.72617</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6987.5307</v>
+        <v>2765.92078</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7913.83592</v>
+        <v>5083.98402</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11510.52649</v>
+        <v>9489.388269999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>21553.86749</v>
+        <v>177495.17267</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>63167.83295</v>
+        <v>53128.63709</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>21525.34805</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7900.57808</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16734.056</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4.66689</v>
@@ -2378,7 +2464,7 @@
         <v>89.86644</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>437.03421</v>
+        <v>429.97295</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>2.21105</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>28.94697</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>55.07556</v>
@@ -2414,7 +2505,7 @@
         <v>217.75011</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>90.23337000000001</v>
+        <v>90.23302000000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>3.42424</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1082.2654</v>
+        <v>1082.26513</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3955.02093</v>
+        <v>3950.61647</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2365.46784</v>
+        <v>2070.5993</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4127.81472</v>
+        <v>3178.39309</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>26860.78475</v>
+        <v>4350.487939999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5048.96902</v>
+        <v>5075.059109999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3572.31576</v>
+        <v>3312.50575</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11381.77312</v>
+        <v>11049.1988</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7150.28602</v>
+        <v>6918.201510000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>15041.66868</v>
+        <v>13463.05829</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4777.45621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1667.05374</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3409.119</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10511.33293</v>
+        <v>9978.371419999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9910.588659999999</v>
+        <v>9945.349689999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>12581.01156</v>
+        <v>12677.11833</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16109.56071</v>
+        <v>15796.77074</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>16599.81299</v>
+        <v>16668.85931</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>23531.05514</v>
+        <v>24145.98985</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33446.96762</v>
+        <v>32138.73088</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>36417.13539</v>
+        <v>37674.74834000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>54685.92032</v>
+        <v>245388.39359</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>99980.66541</v>
+        <v>88931.45013999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>92613.93042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>59737.36618</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>57430.939</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9891.747499999999</v>
+        <v>9361.74294</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9447.91303</v>
+        <v>9482.674060000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>12436.90369</v>
+        <v>12533.01046</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>15875.08233</v>
+        <v>15562.29236</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16028.3896</v>
+        <v>16097.43592</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>22522.92261</v>
+        <v>23084.10437</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>31490.51753</v>
+        <v>30188.57203</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>35920.15581</v>
+        <v>37187.31854</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>51942.59998</v>
+        <v>51715.07109</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>88330.83537</v>
+        <v>77962.59191</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>84162.87338999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>54095.39501</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>53387.236</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>619.58543</v>
+        <v>616.62848</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>462.67563</v>
@@ -2564,115 +2675,130 @@
         <v>571.42339</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1008.13253</v>
+        <v>1061.88548</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1956.45009</v>
+        <v>1950.15885</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>496.97958</v>
+        <v>487.4298</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2743.32034</v>
+        <v>193673.3225</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>11649.83004</v>
+        <v>10968.85823</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8451.05703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5641.97117</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4043.703</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>35271.47079</v>
+        <v>45397.75087</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>42524.47446</v>
+        <v>41314.67181</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>41764.6786</v>
+        <v>37435.71529</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>61059.92268000001</v>
+        <v>59607.17852</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>88093.85221</v>
+        <v>83255.22177</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>115131.40601</v>
+        <v>112122.12342</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>88342.98772999999</v>
+        <v>84843.06823999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>57736.08242</v>
+        <v>63995.64619000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>96916.33362999999</v>
+        <v>-36774.84045000002</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>20265.29187</v>
+        <v>-28907.50648</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>70652.97889000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>93119.99573000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>126097.67</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7817.881359999999</v>
+        <v>7053.979240000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10641.26654</v>
+        <v>10170.71689</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13972.74347</v>
+        <v>13852.61586</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9917.187749999999</v>
+        <v>9458.017449999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17151.42066</v>
+        <v>16841.14939</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27556.39806</v>
+        <v>19905.42468</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>21404.17098</v>
+        <v>26264.87477</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>43686.84778</v>
+        <v>45829.54065</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>44949.12522</v>
+        <v>52503.61680999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>99539.43678999999</v>
+        <v>72402.04919999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>73104.29227999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>43806.96381999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>82351.64</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>310.73755</v>
+        <v>791.71757</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>537.4565700000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>48.53593</v>
+        <v>43.19629</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>328.70222</v>
@@ -2681,109 +2807,124 @@
         <v>134.5958</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1095.11843</v>
+        <v>1094.46843</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>544.15273</v>
+        <v>629.49961</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1007.4987</v>
+        <v>1019.69916</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>321.19449</v>
+        <v>299.3436800000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>515.20595</v>
+        <v>155.54992</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>194.58077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>174.68528</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7507.14381</v>
+        <v>6262.26167</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10103.80997</v>
+        <v>9633.260319999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>13924.20754</v>
+        <v>13809.41957</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9588.485530000002</v>
+        <v>9129.31523</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17016.82486</v>
+        <v>16706.55359</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26461.27963</v>
+        <v>18810.95625</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>20860.01825</v>
+        <v>25635.37516</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>42679.34908</v>
+        <v>44809.84148999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>44627.93073</v>
+        <v>52204.27313</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>99024.23084</v>
+        <v>72246.49928</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>72909.71151000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>43632.27854</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>82344.52</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10212.78328</v>
+        <v>9985.66707</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12104.69929</v>
+        <v>11274.83102</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>61340.66672</v>
+        <v>57818.45281</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10911.62055</v>
+        <v>10414.04257</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11133.4873</v>
+        <v>18207.78764</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>34831.364</v>
+        <v>34547.32254</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>27359.55939</v>
+        <v>27549.26938</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>64342.1481</v>
+        <v>60295.30045</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>40183.62497</v>
+        <v>38619.8375</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>92545.86809</v>
+        <v>84353.29476999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>50527.80856</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>38070.14668999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25943.068</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>149.67512</v>
+        <v>89.77533</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>64.58271999999999</v>
@@ -2795,223 +2936,251 @@
         <v>44.69992</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>80.62499000000001</v>
+        <v>94.28077999999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>553.6512100000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>40.42307</v>
+        <v>50.74807</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0.10968</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>124.59799</v>
+        <v>7.84175</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>415.22306</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1876.14423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1951.06052</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>131.31</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1844.90919</v>
+        <v>1803.35637</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>845.6846800000001</v>
+        <v>825.11468</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>712.20947</v>
+        <v>699.27867</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>552.5528499999999</v>
+        <v>546.19271</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>457.35862</v>
+        <v>777.3209300000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>984.38773</v>
+        <v>1143.35753</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1082.48716</v>
+        <v>1324.63962</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>798.2415800000001</v>
+        <v>715.0468100000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1739.70445</v>
+        <v>1523.26588</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3588.41165</v>
+        <v>3582.38256</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5433.13977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4594.938569999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>828.087</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8218.198969999999</v>
+        <v>8092.535370000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>11194.43189</v>
+        <v>10385.13362</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>60507.11474</v>
+        <v>56997.83163</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10314.36778</v>
+        <v>9823.149939999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10595.50369</v>
+        <v>17336.18593</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>33293.32506</v>
+        <v>32850.3138</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>26236.64916</v>
+        <v>26173.88169</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>63543.79684</v>
+        <v>59580.14396</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>38319.32253</v>
+        <v>37088.72987</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>88542.23337999999</v>
+        <v>80355.68915000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43218.52456000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>31524.1476</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>24983.671</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>32876.56887</v>
+        <v>42466.06304</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>41061.04170999999</v>
+        <v>40210.55768</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5603.244650000001</v>
+        <v>-6530.12166</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>60065.48987999999</v>
+        <v>58651.1534</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>94111.78557000001</v>
+        <v>81888.58352</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>107856.44007</v>
+        <v>97480.22556000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>82387.59932000001</v>
+        <v>83558.67363</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>37080.7821</v>
+        <v>49529.88639</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>101681.83388</v>
+        <v>-22891.06114000002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>27258.86057</v>
+        <v>-40858.75205</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>93229.46261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>98856.81286000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>182506.242</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>10375.82883</v>
+        <v>10173.1553</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>10845.62242</v>
+        <v>10538.5446</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>14011.21583</v>
+        <v>13436.07776</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>15061.24686</v>
+        <v>15002.9147</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>20195.94084</v>
+        <v>19568.13042</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27167.30631</v>
+        <v>26911.56926</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>26046.04252</v>
+        <v>25922.20181</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>28632.62529</v>
+        <v>29051.34678</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>33023.1936</v>
+        <v>34110.08282</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>30699.91411</v>
+        <v>28890.42761</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31829.96973</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>35202.46823</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>31000.236</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>22500.74004</v>
+        <v>32292.90774</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>30215.41929</v>
+        <v>29672.01308</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-19614.46048</v>
+        <v>-19966.19942</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>45004.24301999999</v>
+        <v>43648.23869999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>73915.84473</v>
+        <v>62320.45310000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>80689.13376000001</v>
+        <v>70568.6563</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>56341.5568</v>
+        <v>57636.47182</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>8448.156810000002</v>
+        <v>20478.53961</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>68658.64028000001</v>
+        <v>-57001.14396000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3441.053539999999</v>
+        <v>-69749.17966000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>61399.49288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>63654.34463</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>151506.006</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1198</v>
+        <v>1173</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1269</v>
+        <v>1215</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1338</v>
+        <v>1257</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>575</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>